--- a/public/excel-templates/Schedule-Template.xlsx
+++ b/public/excel-templates/Schedule-Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trix\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\QCU_FilaProject\public\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159DB74D-22FA-4AF9-95AC-8BF83BB6FE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7968" windowHeight="5490"/>
+    <workbookView xWindow="5952" yWindow="1746" windowWidth="17280" windowHeight="8904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>starts_at</t>
   </si>
@@ -42,12 +43,36 @@
   </si>
   <si>
     <t>subject</t>
+  </si>
+  <si>
+    <t>Introduction to Programming</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>BSCS-1A</t>
+  </si>
+  <si>
+    <t>Computer Programming 1</t>
+  </si>
+  <si>
+    <t>Data Structures and Algorithms</t>
+  </si>
+  <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
+    <t>BSCS-2B</t>
+  </si>
+  <si>
+    <t>Data Structures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,11 +387,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -401,9 +426,45 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45734.333333333336</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45734.416666666664</v>
+      </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45734.4375</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45734.520833333336</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
